--- a/codesets.xlsx
+++ b/codesets.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SupingLing\Filr\Net Folders\EPH Data\ICON\ICON_all\PROJECTS\#2034_ICON_chemo_radio\Documents\manuscripts\paper1\V3\New\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SupingLing\Filr\Net Folders\EPH Data\ICON\ICON_all\PROJECTS\#2034_ICON_chemo_radio\Documents\manuscripts\paper1\submissions\BJC\R1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1FD5B3-8E82-406A-9259-4BA7185D8E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298DE35D-FCD3-4F43-AE6F-FAA02C624AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" firstSheet="1" activeTab="3" xr2:uid="{C1075B25-F21E-4C14-8934-A039B7A96EE8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{C1075B25-F21E-4C14-8934-A039B7A96EE8}"/>
   </bookViews>
   <sheets>
     <sheet name="OPCS4-surgery" sheetId="1" r:id="rId1"/>
     <sheet name="OPCS4-radiotherapy" sheetId="2" r:id="rId2"/>
     <sheet name="OPCS4-chemotherapy" sheetId="3" r:id="rId3"/>
     <sheet name="Not chemo in SACT" sheetId="4" r:id="rId4"/>
+    <sheet name="Myocardial infarction" sheetId="5" r:id="rId5"/>
+    <sheet name="Heart failure" sheetId="6" r:id="rId6"/>
+    <sheet name="Chronic pulmonary disease" sheetId="7" r:id="rId7"/>
+    <sheet name="Diabetes with complications " sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="571">
   <si>
     <t>opcs4_code</t>
   </si>
@@ -1005,6 +1009,753 @@
   </si>
   <si>
     <t>TAMOXIFEN</t>
+  </si>
+  <si>
+    <t>ICD-10</t>
+  </si>
+  <si>
+    <t>I21</t>
+  </si>
+  <si>
+    <t>I21.0</t>
+  </si>
+  <si>
+    <t>I21.1</t>
+  </si>
+  <si>
+    <t>I21.2</t>
+  </si>
+  <si>
+    <t>I21.3</t>
+  </si>
+  <si>
+    <t>I21.4</t>
+  </si>
+  <si>
+    <t>I21.9</t>
+  </si>
+  <si>
+    <t>Acute myocardial infarction</t>
+  </si>
+  <si>
+    <t>Acute transmural myocardial infarction of anterior wall</t>
+  </si>
+  <si>
+    <t>Acute transmural myocardial infarction of inferior wall</t>
+  </si>
+  <si>
+    <t>Acute transmural myocardial infarction of other sites</t>
+  </si>
+  <si>
+    <t>Acute transmural myocardial infarction of unspecified site</t>
+  </si>
+  <si>
+    <t>Acute subendocardial myocardial infarction</t>
+  </si>
+  <si>
+    <t>Acute myocardial infarction, unspecified</t>
+  </si>
+  <si>
+    <t>I22</t>
+  </si>
+  <si>
+    <t>I22.0</t>
+  </si>
+  <si>
+    <t>I22.1</t>
+  </si>
+  <si>
+    <t>I22.8</t>
+  </si>
+  <si>
+    <t>I22.9</t>
+  </si>
+  <si>
+    <t>Subsequent myocardial infarction</t>
+  </si>
+  <si>
+    <t>Subsequent myocardial infarction of anterior wall</t>
+  </si>
+  <si>
+    <t>Subsequent myocardial infarction of inferior wall</t>
+  </si>
+  <si>
+    <t>Subsequent myocardial infarction of other sites</t>
+  </si>
+  <si>
+    <t>Subsequent myocardial infarction of unspecified site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I25.2 </t>
+  </si>
+  <si>
+    <t>Old myocardial infarction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I09.9 </t>
+  </si>
+  <si>
+    <t>Rheumatic heart disease, unspecified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I11.0 </t>
+  </si>
+  <si>
+    <t>Hypertensive heart disease with (congestive) heart failure</t>
+  </si>
+  <si>
+    <t>I13.0</t>
+  </si>
+  <si>
+    <t>I13.2</t>
+  </si>
+  <si>
+    <t>Hypertensive heart and renal disease with both (congestive) heart failure and renal failure</t>
+  </si>
+  <si>
+    <t>Hypertensive heart and renal disease with (congestive) heart failure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I25.5 </t>
+  </si>
+  <si>
+    <t>Ischaemic cardiomyopathy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I42.0 </t>
+  </si>
+  <si>
+    <t>Dilated cardiomyopathy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I42.5 </t>
+  </si>
+  <si>
+    <t>Other restrictive cardiomyopathy</t>
+  </si>
+  <si>
+    <t>I42.6</t>
+  </si>
+  <si>
+    <t>Alcoholic cardiomyopathy</t>
+  </si>
+  <si>
+    <t>I42.7</t>
+  </si>
+  <si>
+    <t>Cardiomyopathy due to drugs and other external agents</t>
+  </si>
+  <si>
+    <t>I42.8</t>
+  </si>
+  <si>
+    <t>Other cardiomyopathies</t>
+  </si>
+  <si>
+    <t>I42.9</t>
+  </si>
+  <si>
+    <t>Cardiomyopathy, unspecified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P29.0 </t>
+  </si>
+  <si>
+    <t>Neonatal cardiac failure</t>
+  </si>
+  <si>
+    <t>I43</t>
+  </si>
+  <si>
+    <t>I43.0</t>
+  </si>
+  <si>
+    <t>I43.1</t>
+  </si>
+  <si>
+    <t>I43.2</t>
+  </si>
+  <si>
+    <t>I43.8</t>
+  </si>
+  <si>
+    <t>Cardiomyopathy in diseases classified elsewhere</t>
+  </si>
+  <si>
+    <t>Cardiomyopathy in infectious and parasitic diseases classified elsewhere</t>
+  </si>
+  <si>
+    <t>Cardiomyopathy in metabolic diseases</t>
+  </si>
+  <si>
+    <t>Cardiomyopathy in nutritional diseases</t>
+  </si>
+  <si>
+    <t>Cardiomyopathy in other diseases classified elsewhere</t>
+  </si>
+  <si>
+    <t>I50</t>
+  </si>
+  <si>
+    <t>Heart failure</t>
+  </si>
+  <si>
+    <t>I50.0</t>
+  </si>
+  <si>
+    <t>Congestive heart failure</t>
+  </si>
+  <si>
+    <t>I50.1</t>
+  </si>
+  <si>
+    <t>Left ventricular failure</t>
+  </si>
+  <si>
+    <t>I50.9</t>
+  </si>
+  <si>
+    <t>Heart failure, unspecified</t>
+  </si>
+  <si>
+    <t>Other specified pulmonary heart diseases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I27.9 </t>
+  </si>
+  <si>
+    <t>Pulmonary heart disease, unspecified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J70.1 </t>
+  </si>
+  <si>
+    <t>Chronic and other pulmonary manifestations due to radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J70.3 </t>
+  </si>
+  <si>
+    <t>Chronic drug-induced interstitial lung disorders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J68.4 </t>
+  </si>
+  <si>
+    <t>Chronic respiratory conditions due to chemicals, gases, fumes and vapours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I27.8 </t>
+  </si>
+  <si>
+    <t>J40</t>
+  </si>
+  <si>
+    <t>Bronchitis, not specified as acute or chronic</t>
+  </si>
+  <si>
+    <t>J41</t>
+  </si>
+  <si>
+    <t>Simple and mucopurulent chronic bronchitis</t>
+  </si>
+  <si>
+    <t>J41.0</t>
+  </si>
+  <si>
+    <t>Simple chronic bronchitis</t>
+  </si>
+  <si>
+    <t>J41.1</t>
+  </si>
+  <si>
+    <t>Mucopurulent chronic bronchitis</t>
+  </si>
+  <si>
+    <t>J41.8</t>
+  </si>
+  <si>
+    <t>Mixed simple and mucopurulent chronic bronchitis</t>
+  </si>
+  <si>
+    <t>J42</t>
+  </si>
+  <si>
+    <t>Unspecified chronic bronchitis</t>
+  </si>
+  <si>
+    <t>J43</t>
+  </si>
+  <si>
+    <t>Emphysema</t>
+  </si>
+  <si>
+    <t>J43.0</t>
+  </si>
+  <si>
+    <t>MacLeod syndrome</t>
+  </si>
+  <si>
+    <t>J43.1</t>
+  </si>
+  <si>
+    <t>Panlobular emphysema</t>
+  </si>
+  <si>
+    <t>J43.2</t>
+  </si>
+  <si>
+    <t>Centrilobular emphysema</t>
+  </si>
+  <si>
+    <t>J43.8</t>
+  </si>
+  <si>
+    <t>Other emphysema</t>
+  </si>
+  <si>
+    <t>J43.9</t>
+  </si>
+  <si>
+    <t>Emphysema, unspecified</t>
+  </si>
+  <si>
+    <t>J44</t>
+  </si>
+  <si>
+    <t>Other chronic obstructive pulmonary disease</t>
+  </si>
+  <si>
+    <t>J44.0</t>
+  </si>
+  <si>
+    <t>Chronic obstructive pulmonary disease with acute lower respiratory infection</t>
+  </si>
+  <si>
+    <t>J44.1</t>
+  </si>
+  <si>
+    <t>Chronic obstructive pulmonary disease with acute exacerbation, unspecified</t>
+  </si>
+  <si>
+    <t>J44.8</t>
+  </si>
+  <si>
+    <t>Other specified chronic obstructive pulmonary disease</t>
+  </si>
+  <si>
+    <t>J44.9</t>
+  </si>
+  <si>
+    <t>Chronic obstructive pulmonary disease, unspecified</t>
+  </si>
+  <si>
+    <t>J45</t>
+  </si>
+  <si>
+    <t>Asthma</t>
+  </si>
+  <si>
+    <t>J45.0</t>
+  </si>
+  <si>
+    <t>Predominantly allergic asthma</t>
+  </si>
+  <si>
+    <t>J45.1</t>
+  </si>
+  <si>
+    <t>Nonallergic asthma</t>
+  </si>
+  <si>
+    <t>J45.8</t>
+  </si>
+  <si>
+    <t>Mixed asthma</t>
+  </si>
+  <si>
+    <t>J45.9</t>
+  </si>
+  <si>
+    <t>Asthma, unspecified</t>
+  </si>
+  <si>
+    <t>J46</t>
+  </si>
+  <si>
+    <t>Status asthmaticus</t>
+  </si>
+  <si>
+    <t>J47</t>
+  </si>
+  <si>
+    <t>Bronchiectasis</t>
+  </si>
+  <si>
+    <t>J60</t>
+  </si>
+  <si>
+    <t>Coalworker pneumoconiosis</t>
+  </si>
+  <si>
+    <t>J61</t>
+  </si>
+  <si>
+    <t>Pneumoconiosis due to asbestos and other mineral fibres</t>
+  </si>
+  <si>
+    <t>J62</t>
+  </si>
+  <si>
+    <t>Pneumoconiosis due to dust containing silica</t>
+  </si>
+  <si>
+    <t>J62.0</t>
+  </si>
+  <si>
+    <t>Pneumoconiosis due to talc dust</t>
+  </si>
+  <si>
+    <t>J62.8</t>
+  </si>
+  <si>
+    <t>Pneumoconiosis due to other dust containing silica</t>
+  </si>
+  <si>
+    <t>J63</t>
+  </si>
+  <si>
+    <t>Pneumoconiosis due to other inorganic dusts</t>
+  </si>
+  <si>
+    <t>J63.0</t>
+  </si>
+  <si>
+    <t>Aluminosis (of lung)</t>
+  </si>
+  <si>
+    <t>J63.1</t>
+  </si>
+  <si>
+    <t>Bauxite fibrosis (of lung)</t>
+  </si>
+  <si>
+    <t>J63.2</t>
+  </si>
+  <si>
+    <t>Berylliosis</t>
+  </si>
+  <si>
+    <t>J63.3</t>
+  </si>
+  <si>
+    <t>Graphite fibrosis (of lung)</t>
+  </si>
+  <si>
+    <t>J63.4</t>
+  </si>
+  <si>
+    <t>Siderosis</t>
+  </si>
+  <si>
+    <t>J63.5</t>
+  </si>
+  <si>
+    <t>Stannosis</t>
+  </si>
+  <si>
+    <t>J63.8</t>
+  </si>
+  <si>
+    <t>Pneumoconiosis due to other specified inorganic dusts</t>
+  </si>
+  <si>
+    <t>J64</t>
+  </si>
+  <si>
+    <t>Unspecified pneumoconiosis</t>
+  </si>
+  <si>
+    <t>J65</t>
+  </si>
+  <si>
+    <t>Pneumoconiosis associated with tuberculosis</t>
+  </si>
+  <si>
+    <t>J66</t>
+  </si>
+  <si>
+    <t>Airway disease due to specific organic dust</t>
+  </si>
+  <si>
+    <t>J66.0</t>
+  </si>
+  <si>
+    <t>Byssinosis</t>
+  </si>
+  <si>
+    <t>J66.1</t>
+  </si>
+  <si>
+    <t>Flax-dresser disease</t>
+  </si>
+  <si>
+    <t>J66.2</t>
+  </si>
+  <si>
+    <t>Cannabinosis</t>
+  </si>
+  <si>
+    <t>J66.8</t>
+  </si>
+  <si>
+    <t>Airway disease due to other specific organic dusts</t>
+  </si>
+  <si>
+    <t>J67</t>
+  </si>
+  <si>
+    <t>Hypersensitivity pneumonitis due to organic dust</t>
+  </si>
+  <si>
+    <t>J67.0</t>
+  </si>
+  <si>
+    <t>Farmer lung</t>
+  </si>
+  <si>
+    <t>J67.1</t>
+  </si>
+  <si>
+    <t>Bagassosis</t>
+  </si>
+  <si>
+    <t>J67.2</t>
+  </si>
+  <si>
+    <t>Bird fancier lung</t>
+  </si>
+  <si>
+    <t>J67.3</t>
+  </si>
+  <si>
+    <t>Suberosis</t>
+  </si>
+  <si>
+    <t>J67.4</t>
+  </si>
+  <si>
+    <t>Maltworker lung</t>
+  </si>
+  <si>
+    <t>J67.5</t>
+  </si>
+  <si>
+    <t>Mushroom-worker lung</t>
+  </si>
+  <si>
+    <t>J67.6</t>
+  </si>
+  <si>
+    <t>Maple-bark-stripper lung</t>
+  </si>
+  <si>
+    <t>J67.7</t>
+  </si>
+  <si>
+    <t>Air-conditioner and humidifier lung</t>
+  </si>
+  <si>
+    <t>J67.8</t>
+  </si>
+  <si>
+    <t>Hypersensitivity pneumonitis due to other organic dusts</t>
+  </si>
+  <si>
+    <t>J67.9</t>
+  </si>
+  <si>
+    <t>Hypersensitivity pneumonitis due to unspecified organic dust</t>
+  </si>
+  <si>
+    <t>E10.2</t>
+  </si>
+  <si>
+    <t>Type 1 diabetes mellitus: With renal complications</t>
+  </si>
+  <si>
+    <t>E10.3</t>
+  </si>
+  <si>
+    <t>Type 1 diabetes mellitus: With ophthalmic complications</t>
+  </si>
+  <si>
+    <t>E10.4</t>
+  </si>
+  <si>
+    <t>Type 1 diabetes mellitus: With neurological complications</t>
+  </si>
+  <si>
+    <t>E10.5</t>
+  </si>
+  <si>
+    <t>Type 1 diabetes mellitus: With peripheral circulatory complications</t>
+  </si>
+  <si>
+    <t>E10.7</t>
+  </si>
+  <si>
+    <t>Type 1 diabetes mellitus: With multiple complications</t>
+  </si>
+  <si>
+    <t>E11.2</t>
+  </si>
+  <si>
+    <t>Type 2 diabetes mellitus: With renal complications</t>
+  </si>
+  <si>
+    <t>E11.3</t>
+  </si>
+  <si>
+    <t>Type 2 diabetes mellitus: With ophthalmic complications</t>
+  </si>
+  <si>
+    <t>E11.4</t>
+  </si>
+  <si>
+    <t>Type 2 diabetes mellitus: With neurological complications</t>
+  </si>
+  <si>
+    <t>E11.5</t>
+  </si>
+  <si>
+    <t>Type 2 diabetes mellitus: With peripheral circulatory complications</t>
+  </si>
+  <si>
+    <t>E11.6</t>
+  </si>
+  <si>
+    <t>Type 2 diabetes mellitus: With other specified complications</t>
+  </si>
+  <si>
+    <t>E11.7</t>
+  </si>
+  <si>
+    <t>Type 2 diabetes mellitus: With multiple complications</t>
+  </si>
+  <si>
+    <t>E11.8</t>
+  </si>
+  <si>
+    <t>Type 2 diabetes mellitus: With unspecified complications</t>
+  </si>
+  <si>
+    <t>E11.9</t>
+  </si>
+  <si>
+    <t>Type 2 diabetes mellitus: Without complications</t>
+  </si>
+  <si>
+    <t>E12.2</t>
+  </si>
+  <si>
+    <t>Malnutrition-related diabetes mellitus: With renal complications</t>
+  </si>
+  <si>
+    <t>E12.3</t>
+  </si>
+  <si>
+    <t>E12.4</t>
+  </si>
+  <si>
+    <t>E12.5</t>
+  </si>
+  <si>
+    <t>E12.7</t>
+  </si>
+  <si>
+    <t>Malnutrition-related diabetes mellitus: With multiple complications</t>
+  </si>
+  <si>
+    <t>E13.2</t>
+  </si>
+  <si>
+    <t>Other specified diabetes mellitus: With renal complications</t>
+  </si>
+  <si>
+    <t>E13.3</t>
+  </si>
+  <si>
+    <t>Other specified diabetes mellitus: With ophthalmic complications</t>
+  </si>
+  <si>
+    <t>E13.4</t>
+  </si>
+  <si>
+    <t>Other specified diabetes mellitus: With neurological complications</t>
+  </si>
+  <si>
+    <t>E13.5</t>
+  </si>
+  <si>
+    <t>E13.7</t>
+  </si>
+  <si>
+    <t>Other specified diabetes mellitus: With multiple complications</t>
+  </si>
+  <si>
+    <t>E13.8</t>
+  </si>
+  <si>
+    <t>Other specified diabetes mellitus: With unspecified complications</t>
+  </si>
+  <si>
+    <t>E13.9</t>
+  </si>
+  <si>
+    <t>Other specified diabetes mellitus: Without complications</t>
+  </si>
+  <si>
+    <t>E14.2</t>
+  </si>
+  <si>
+    <t>Unspecified diabetes mellitus: With renal complications</t>
+  </si>
+  <si>
+    <t>E14.3</t>
+  </si>
+  <si>
+    <t>Unspecified diabetes mellitus: With ophthalmic complications</t>
+  </si>
+  <si>
+    <t>E14.4</t>
+  </si>
+  <si>
+    <t>Unspecified diabetes mellitus: With neurological complications</t>
+  </si>
+  <si>
+    <t>E14.5</t>
+  </si>
+  <si>
+    <t>E14.7</t>
+  </si>
+  <si>
+    <t>Unspecified diabetes mellitus: With multiple complications</t>
+  </si>
+  <si>
+    <t>Malnutrition-related diabetes mellitus: With ophthalmic complications</t>
+  </si>
+  <si>
+    <t>Malnutrition-related diabetes mellitus: With neurological complications</t>
+  </si>
+  <si>
+    <t>Malnutrition-related diabetes mellitus: With peripheral circulatory complications</t>
+  </si>
+  <si>
+    <t>Other specified diabetes mellitus: With peripheral circulatory complications</t>
+  </si>
+  <si>
+    <t>Unspecified diabetes mellitus: With peripheral circulatory complications</t>
   </si>
 </sst>
 </file>
@@ -1358,17 +2109,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7AD4A2-31DF-45D0-A56E-BD1B8A815706}">
   <dimension ref="A1:B147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="167.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="167.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1376,7 +2127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1384,7 +2135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1392,7 +2143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1400,7 +2151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1408,7 +2159,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1416,7 +2167,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1424,7 +2175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1432,7 +2183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1440,7 +2191,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1448,7 +2199,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1456,7 +2207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1464,7 +2215,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1472,7 +2223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1480,7 +2231,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1488,7 +2239,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1496,7 +2247,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1504,7 +2255,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1512,7 +2263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1520,7 +2271,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1528,7 +2279,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -1536,7 +2287,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1544,7 +2295,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1552,7 +2303,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1560,7 +2311,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -1568,7 +2319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -1576,7 +2327,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -1584,7 +2335,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -1592,7 +2343,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -1600,7 +2351,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -1608,7 +2359,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -1616,7 +2367,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -1624,7 +2375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -1632,7 +2383,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -1640,7 +2391,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -1648,7 +2399,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -1656,7 +2407,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>64</v>
       </c>
@@ -1664,7 +2415,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>66</v>
       </c>
@@ -1672,7 +2423,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>68</v>
       </c>
@@ -1680,7 +2431,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -1688,7 +2439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>71</v>
       </c>
@@ -1696,7 +2447,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>72</v>
       </c>
@@ -1704,7 +2455,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -1712,7 +2463,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>76</v>
       </c>
@@ -1720,7 +2471,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>78</v>
       </c>
@@ -1728,7 +2479,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>80</v>
       </c>
@@ -1736,7 +2487,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -1744,7 +2495,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -1752,7 +2503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>85</v>
       </c>
@@ -1760,7 +2511,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>86</v>
       </c>
@@ -1768,7 +2519,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>88</v>
       </c>
@@ -1776,7 +2527,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>90</v>
       </c>
@@ -1784,7 +2535,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>92</v>
       </c>
@@ -1792,7 +2543,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>94</v>
       </c>
@@ -1800,7 +2551,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>96</v>
       </c>
@@ -1808,7 +2559,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>98</v>
       </c>
@@ -1816,7 +2567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>99</v>
       </c>
@@ -1824,7 +2575,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>100</v>
       </c>
@@ -1832,7 +2583,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>102</v>
       </c>
@@ -1840,7 +2591,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>104</v>
       </c>
@@ -1848,7 +2599,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>106</v>
       </c>
@@ -1856,7 +2607,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>108</v>
       </c>
@@ -1864,7 +2615,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>110</v>
       </c>
@@ -1872,7 +2623,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>112</v>
       </c>
@@ -1880,7 +2631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>113</v>
       </c>
@@ -1888,7 +2639,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>115</v>
       </c>
@@ -1896,7 +2647,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>117</v>
       </c>
@@ -1904,7 +2655,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>119</v>
       </c>
@@ -1912,7 +2663,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>121</v>
       </c>
@@ -1920,7 +2671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>122</v>
       </c>
@@ -1928,7 +2679,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>123</v>
       </c>
@@ -1936,7 +2687,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>125</v>
       </c>
@@ -1944,7 +2695,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>127</v>
       </c>
@@ -1952,7 +2703,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>129</v>
       </c>
@@ -1960,7 +2711,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>131</v>
       </c>
@@ -1968,7 +2719,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>133</v>
       </c>
@@ -1976,7 +2727,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>135</v>
       </c>
@@ -1984,7 +2735,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>137</v>
       </c>
@@ -1992,7 +2743,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>138</v>
       </c>
@@ -2000,7 +2751,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>139</v>
       </c>
@@ -2008,7 +2759,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>141</v>
       </c>
@@ -2016,7 +2767,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>143</v>
       </c>
@@ -2024,7 +2775,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>145</v>
       </c>
@@ -2032,7 +2783,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>147</v>
       </c>
@@ -2040,7 +2791,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>149</v>
       </c>
@@ -2048,7 +2799,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>151</v>
       </c>
@@ -2056,7 +2807,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>153</v>
       </c>
@@ -2064,7 +2815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>154</v>
       </c>
@@ -2072,7 +2823,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>155</v>
       </c>
@@ -2080,7 +2831,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>157</v>
       </c>
@@ -2088,7 +2839,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>159</v>
       </c>
@@ -2096,7 +2847,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>161</v>
       </c>
@@ -2104,7 +2855,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>163</v>
       </c>
@@ -2112,7 +2863,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>165</v>
       </c>
@@ -2120,7 +2871,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>167</v>
       </c>
@@ -2128,7 +2879,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>169</v>
       </c>
@@ -2136,7 +2887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>170</v>
       </c>
@@ -2144,7 +2895,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>171</v>
       </c>
@@ -2152,7 +2903,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>173</v>
       </c>
@@ -2160,7 +2911,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>175</v>
       </c>
@@ -2168,7 +2919,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>177</v>
       </c>
@@ -2176,7 +2927,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>179</v>
       </c>
@@ -2184,7 +2935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>180</v>
       </c>
@@ -2192,7 +2943,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>181</v>
       </c>
@@ -2200,7 +2951,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>183</v>
       </c>
@@ -2208,7 +2959,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>185</v>
       </c>
@@ -2216,7 +2967,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>187</v>
       </c>
@@ -2224,7 +2975,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>189</v>
       </c>
@@ -2232,7 +2983,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>191</v>
       </c>
@@ -2240,7 +2991,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>193</v>
       </c>
@@ -2248,7 +2999,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>195</v>
       </c>
@@ -2256,7 +3007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>196</v>
       </c>
@@ -2264,7 +3015,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>198</v>
       </c>
@@ -2272,7 +3023,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>200</v>
       </c>
@@ -2280,7 +3031,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>202</v>
       </c>
@@ -2288,7 +3039,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>204</v>
       </c>
@@ -2296,7 +3047,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>206</v>
       </c>
@@ -2304,7 +3055,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>208</v>
       </c>
@@ -2312,7 +3063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>209</v>
       </c>
@@ -2320,7 +3071,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>210</v>
       </c>
@@ -2328,7 +3079,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>212</v>
       </c>
@@ -2336,7 +3087,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>214</v>
       </c>
@@ -2344,7 +3095,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>216</v>
       </c>
@@ -2352,7 +3103,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>218</v>
       </c>
@@ -2360,7 +3111,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>220</v>
       </c>
@@ -2368,7 +3119,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>222</v>
       </c>
@@ -2376,7 +3127,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>224</v>
       </c>
@@ -2384,7 +3135,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>226</v>
       </c>
@@ -2392,7 +3143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>227</v>
       </c>
@@ -2400,7 +3151,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>228</v>
       </c>
@@ -2408,7 +3159,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>230</v>
       </c>
@@ -2416,7 +3167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>231</v>
       </c>
@@ -2424,7 +3175,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>232</v>
       </c>
@@ -2432,7 +3183,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>234</v>
       </c>
@@ -2440,7 +3191,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>236</v>
       </c>
@@ -2448,7 +3199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>237</v>
       </c>
@@ -2456,7 +3207,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>238</v>
       </c>
@@ -2464,7 +3215,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>240</v>
       </c>
@@ -2472,7 +3223,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>242</v>
       </c>
@@ -2480,7 +3231,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>244</v>
       </c>
@@ -2488,7 +3239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>245</v>
       </c>
@@ -2496,7 +3247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>246</v>
       </c>
@@ -2504,7 +3255,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>248</v>
       </c>
@@ -2512,7 +3263,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>250</v>
       </c>
@@ -2520,7 +3271,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>252</v>
       </c>
@@ -2528,7 +3279,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>254</v>
       </c>
@@ -2536,7 +3287,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>256</v>
       </c>
@@ -2554,12 +3305,12 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>266</v>
       </c>
@@ -2567,7 +3318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>257</v>
       </c>
@@ -2575,7 +3326,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>258</v>
       </c>
@@ -2583,7 +3334,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>260</v>
       </c>
@@ -2591,7 +3342,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>259</v>
       </c>
@@ -2599,7 +3350,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>261</v>
       </c>
@@ -2607,7 +3358,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>262</v>
       </c>
@@ -2615,7 +3366,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>263</v>
       </c>
@@ -2623,7 +3374,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>264</v>
       </c>
@@ -2631,7 +3382,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>265</v>
       </c>
@@ -2653,9 +3404,9 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>278</v>
       </c>
@@ -2663,7 +3414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>276</v>
       </c>
@@ -2671,7 +3422,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>282</v>
       </c>
@@ -2679,7 +3430,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>283</v>
       </c>
@@ -2687,7 +3438,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>284</v>
       </c>
@@ -2704,198 +3455,1294 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5321CA8-AEC9-42E7-AC80-F377AC1AE37D}">
   <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>321</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEBB6C2B-2E32-4AFC-B5AB-3B76876C8C71}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="48.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>338</v>
+      </c>
+      <c r="B10" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>340</v>
+      </c>
+      <c r="B12" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>341</v>
+      </c>
+      <c r="B13" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>347</v>
+      </c>
+      <c r="B14" t="s">
+        <v>348</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4F413D-06FB-483B-8728-2D2B34D56AF4}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="57.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>363</v>
+      </c>
+      <c r="B9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>365</v>
+      </c>
+      <c r="B10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>367</v>
+      </c>
+      <c r="B11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>369</v>
+      </c>
+      <c r="B12" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>371</v>
+      </c>
+      <c r="B13" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>373</v>
+      </c>
+      <c r="B14" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>374</v>
+      </c>
+      <c r="B15" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>375</v>
+      </c>
+      <c r="B16" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>376</v>
+      </c>
+      <c r="B17" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>377</v>
+      </c>
+      <c r="B18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>383</v>
+      </c>
+      <c r="B19" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>385</v>
+      </c>
+      <c r="B20" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>387</v>
+      </c>
+      <c r="B21" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>389</v>
+      </c>
+      <c r="B22" t="s">
+        <v>390</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9F3BCB-6236-4C01-A96D-2DB2A77DCE54}">
+  <dimension ref="A1:B61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="64.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>398</v>
+      </c>
+      <c r="B6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>403</v>
+      </c>
+      <c r="B8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>405</v>
+      </c>
+      <c r="B9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>407</v>
+      </c>
+      <c r="B10" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>409</v>
+      </c>
+      <c r="B11" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>411</v>
+      </c>
+      <c r="B12" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>413</v>
+      </c>
+      <c r="B13" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>415</v>
+      </c>
+      <c r="B14" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>417</v>
+      </c>
+      <c r="B15" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>419</v>
+      </c>
+      <c r="B16" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>421</v>
+      </c>
+      <c r="B17" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>423</v>
+      </c>
+      <c r="B18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>425</v>
+      </c>
+      <c r="B19" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>427</v>
+      </c>
+      <c r="B20" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>429</v>
+      </c>
+      <c r="B21" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>431</v>
+      </c>
+      <c r="B22" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>433</v>
+      </c>
+      <c r="B23" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>435</v>
+      </c>
+      <c r="B24" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>437</v>
+      </c>
+      <c r="B25" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>439</v>
+      </c>
+      <c r="B26" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>441</v>
+      </c>
+      <c r="B27" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>443</v>
+      </c>
+      <c r="B28" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>445</v>
+      </c>
+      <c r="B29" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>447</v>
+      </c>
+      <c r="B30" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>449</v>
+      </c>
+      <c r="B31" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>451</v>
+      </c>
+      <c r="B32" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>453</v>
+      </c>
+      <c r="B33" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>455</v>
+      </c>
+      <c r="B34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>457</v>
+      </c>
+      <c r="B35" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>459</v>
+      </c>
+      <c r="B36" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>461</v>
+      </c>
+      <c r="B37" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>463</v>
+      </c>
+      <c r="B38" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>465</v>
+      </c>
+      <c r="B39" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>467</v>
+      </c>
+      <c r="B40" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>469</v>
+      </c>
+      <c r="B41" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>471</v>
+      </c>
+      <c r="B42" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>473</v>
+      </c>
+      <c r="B43" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>475</v>
+      </c>
+      <c r="B44" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>477</v>
+      </c>
+      <c r="B45" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>479</v>
+      </c>
+      <c r="B46" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>481</v>
+      </c>
+      <c r="B47" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>483</v>
+      </c>
+      <c r="B48" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>485</v>
+      </c>
+      <c r="B49" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>487</v>
+      </c>
+      <c r="B50" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>489</v>
+      </c>
+      <c r="B51" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>491</v>
+      </c>
+      <c r="B52" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>493</v>
+      </c>
+      <c r="B53" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>495</v>
+      </c>
+      <c r="B54" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>497</v>
+      </c>
+      <c r="B55" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>499</v>
+      </c>
+      <c r="B56" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>501</v>
+      </c>
+      <c r="B57" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>503</v>
+      </c>
+      <c r="B58" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>505</v>
+      </c>
+      <c r="B59" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>507</v>
+      </c>
+      <c r="B60" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>509</v>
+      </c>
+      <c r="B61" t="s">
+        <v>510</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41989C8-9008-4914-9AF2-A6F47730DD68}">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="67.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>515</v>
+      </c>
+      <c r="B4" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>517</v>
+      </c>
+      <c r="B5" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>519</v>
+      </c>
+      <c r="B6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>521</v>
+      </c>
+      <c r="B7" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>523</v>
+      </c>
+      <c r="B8" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>525</v>
+      </c>
+      <c r="B9" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>527</v>
+      </c>
+      <c r="B10" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>529</v>
+      </c>
+      <c r="B11" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>531</v>
+      </c>
+      <c r="B12" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>533</v>
+      </c>
+      <c r="B13" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>535</v>
+      </c>
+      <c r="B14" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>537</v>
+      </c>
+      <c r="B15" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>539</v>
+      </c>
+      <c r="B16" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>540</v>
+      </c>
+      <c r="B17" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>541</v>
+      </c>
+      <c r="B18" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>542</v>
+      </c>
+      <c r="B19" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>544</v>
+      </c>
+      <c r="B20" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>546</v>
+      </c>
+      <c r="B21" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>548</v>
+      </c>
+      <c r="B22" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>550</v>
+      </c>
+      <c r="B23" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>551</v>
+      </c>
+      <c r="B24" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>553</v>
+      </c>
+      <c r="B25" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>555</v>
+      </c>
+      <c r="B26" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>557</v>
+      </c>
+      <c r="B27" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>559</v>
+      </c>
+      <c r="B28" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>561</v>
+      </c>
+      <c r="B29" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>563</v>
+      </c>
+      <c r="B30" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>564</v>
+      </c>
+      <c r="B31" t="s">
+        <v>565</v>
       </c>
     </row>
   </sheetData>
